--- a/comparison/summary.xlsx
+++ b/comparison/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\JPI TMA\comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\JPI TMA\to_git\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B2D0B4-DF32-413A-B943-D07FE9A3EB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086BD306-C813-47E1-AE35-B398DBFF5966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32520" yWindow="-300" windowWidth="9345" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1455" windowWidth="15420" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,25 +445,25 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.161</v>
       </c>
       <c r="C3" s="2">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="D3" s="1">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.19400000000000001</v>
+      <c r="E3" s="1">
+        <v>0.32300000000000001</v>
       </c>
       <c r="F3" s="2">
-        <v>0.90300000000000002</v>
+        <v>0.71</v>
       </c>
       <c r="G3" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.871</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -471,25 +471,25 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.11600000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C4">
-        <v>7.4999999999999997E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D4">
-        <v>7.2999999999999995E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E4">
-        <v>8.3000000000000004E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F4">
-        <v>7.1999999999999995E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G4">
-        <v>0.08</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="H4">
-        <v>5.3999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -497,26 +497,29 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.29299999999999998</v>
+        <v>0.123</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <v>0.114</v>
       </c>
       <c r="D5">
-        <v>0.214</v>
+        <v>0.12</v>
       </c>
       <c r="E5">
-        <v>0.20499999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F5">
-        <v>8.1000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G5">
-        <v>8.8999999999999996E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H5">
-        <v>6.3E-2</v>
-      </c>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
